--- a/스프링부트 미니프로젝트_prontend_v20251117.xlsx
+++ b/스프링부트 미니프로젝트_prontend_v20251117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="팀프로젝트" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">팀프로젝트!$A$1:$AA$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,228 +181,1058 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/order/cancel/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) /common/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 관리 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/address/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>페이지 명칭 (URL 예시)</t>
+  </si>
+  <si>
+    <t>역할 및 내용</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>로그인 폼</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>회원가입 폼</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>메인 페이지, 주요 상품 노출</t>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할 및 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common/join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통파트 - 회원/로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 메인파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 내역 조회, 수량 변경, 일부/전체 주문 기능</t>
+  </si>
+  <si>
+    <t>상품 목록</t>
+  </si>
+  <si>
+    <t>product/list.html</t>
+  </si>
+  <si>
+    <t>상품 상세</t>
+  </si>
+  <si>
+    <t>product/detail.html</t>
+  </si>
+  <si>
+    <t>모든 농작물 목록, 검색 및 필터 기능 포함</t>
+  </si>
+  <si>
+    <t>단일 농작물 상세 정보, 장바구니 담기, Sold Out 표시</t>
+  </si>
+  <si>
+    <t>주문/결제</t>
+  </si>
+  <si>
+    <t>주문 내역 조회</t>
+  </si>
+  <si>
+    <t>주문 상세</t>
+  </si>
+  <si>
+    <t>특정 주문의 상세 정보</t>
+  </si>
+  <si>
+    <t>배송지 관리</t>
+  </si>
+  <si>
+    <t>배송지 추가/수정/삭제 폼</t>
+  </si>
+  <si>
+    <t>주문 내역 전체 조회, 취소 가능 상태 확인</t>
+  </si>
+  <si>
+    <t>관리자 홈</t>
+  </si>
+  <si>
+    <t>admin/dashboard.html</t>
+  </si>
+  <si>
+    <t>관리자 대시보드 (주요 통계 요약)</t>
+  </si>
+  <si>
+    <t>농작물 등록/관리</t>
+  </si>
+  <si>
+    <t>admin/farm/manage.html</t>
+  </si>
+  <si>
+    <t>농작물 추가/삭제/활성화/비활성화 폼 및 목록</t>
+  </si>
+  <si>
+    <t>상품 등록/관리</t>
+  </si>
+  <si>
+    <t>admin/product/manage.html</t>
+  </si>
+  <si>
+    <t>판매 상품 등록 및 게시 중단 기능 목록</t>
+  </si>
+  <si>
+    <t>주문 조회/처리</t>
+  </si>
+  <si>
+    <t>admin/order/list.html</t>
+  </si>
+  <si>
+    <t>통계/정산</t>
+  </si>
+  <si>
+    <t>admin/stats/main.html</t>
+  </si>
+  <si>
+    <t>일자별/품목별 통계, 정산 내역 조회</t>
+  </si>
+  <si>
+    <t>소비자 주문 목록 조회, 주문 상태 변경, 송장 번호 입력</t>
+  </si>
+  <si>
+    <t>페이지 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사용자 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 관리자 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제, 주소지 정보 입력 주문 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prontend_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prontend_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prontend_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* GitHub_NamingRule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강승태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 헤더/푸터 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허정우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장경국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/cart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/checkout.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/orderList.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/orderDetail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product/address.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보입력(옵션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기(주문결제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택상품주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체상품주문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문배송관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원/로그인</t>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+  </si>
+  <si>
+    <t>관리자 계정으로 로그인 하면 관리 사이트로 넘어간다.</t>
+  </si>
+  <si>
+    <t>상품/농작물 등록·관리</t>
+  </si>
+  <si>
+    <t>농작물 추가 기능</t>
+  </si>
+  <si>
+    <t>농작물 삭제 기능</t>
+  </si>
+  <si>
+    <t>농작물 재배 활성화/비활성화 기능</t>
+  </si>
+  <si>
+    <t>상품 등록 및 관리</t>
+  </si>
+  <si>
+    <t>창고에 있는 만큼의 농작물을 등록할 수 있다.</t>
+  </si>
+  <si>
+    <t>등록되어 있는 농작물은 게시를 중단할 수 있다.</t>
+  </si>
+  <si>
+    <t>검색/탐색</t>
+  </si>
+  <si>
+    <t>상품 검색 기능 (수확시기 등으로 필터 적용)</t>
+  </si>
+  <si>
+    <t>판매 사이트에 올라와 있는 농작물을 볼 수 있다.</t>
+  </si>
+  <si>
+    <t>장바구니/주문·결제</t>
+  </si>
+  <si>
+    <t>상품 장바구니 기능</t>
+  </si>
+  <si>
+    <t>농작물의 페이지로 들어가 개수를 지정해서 장바구니에 담을 수 있다.</t>
+  </si>
+  <si>
+    <t>장바구니에 있는 농작물의 일부 혹은 전부 구매할 수 있다.</t>
+  </si>
+  <si>
+    <t>주문 조회/처리 - (관리자)</t>
+  </si>
+  <si>
+    <t>소비자가 주문한 농작물 조회 기능</t>
+  </si>
+  <si>
+    <t>주문 상태 변경 기능 → 배송 중으로 변경</t>
+  </si>
+  <si>
+    <t>배송 처리(주문 상품별 송장 번호 및 택배사 정보 입력)</t>
+  </si>
+  <si>
+    <t>주문 조회/처리(취소) - (사용자)</t>
+  </si>
+  <si>
+    <t>재고/노출 관리 - (사용자)</t>
+  </si>
+  <si>
+    <t>통계/정산 - (관리자)</t>
+  </si>
+  <si>
+    <t>농작물 주문 통계 기능 (일자별/품목별 판매시 cnt++)</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>정산(판매 내역, 금액 조회)</t>
+  </si>
+  <si>
+    <t>계정/주소·계좌 관리</t>
+  </si>
+  <si>
+    <t>사용자</t>
+  </si>
+  <si>
+    <t>농가 정보, 계좌 등록</t>
+  </si>
+  <si>
+    <t>물품 상태가 배송 중으로 바뀌기 전에는 주문을 취소할 수 있다.</t>
+  </si>
+  <si>
+    <t>요구 사항 정리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (품절 표기는 재고/노출과 연관, 배송 맥락과 함께 노출되는 문구로 함께 묶음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 사용자는 판매 페이지에서 재고가 없는 농작물은 자동으로 sold out 처리된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login/Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 및 UseCase 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB &amp; ERD Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 및 각 파트별 기능설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript/JQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User purchase order/cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop Item Searching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order Managing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crops / Inventories managing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 아이템 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 결과 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/orderlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 구매 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 구매한 물품의 총 개수와 가격을 확인하여 구매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자는 구매한 물품의 총 개수와 가격을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자가 주문한 주문 내역 조회/취소 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 목록 조회</t>
+  </si>
+  <si>
+    <t>/orders</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>장바구니에 아이템 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주소 관리 메서드에 주소 삭제 메서드 추가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어드민 관리 페이지 입장 url 및 controller 방식을 REST API 방식으로 수정한 api 추가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소비자 주소 관리 메서드 Controller와 RestController 방식으로 분리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어드민 농작물 관리 페이지 및 controller 방식을 REST API 방식으로 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어드민 농장 주소 관리 API 구현</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 작물 및 창고 항목 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회원가입 ID 중복 확인 및 처리 기능 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상품관리 페이지 등 유효성 검사 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로그인 관리 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 주소 관리 기능 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소비자 주문 관리 API 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소비자 구매/장바구니 API 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 일부 테이블 성능 향상 및 무결성 확보를 위한 테이블 비정규화 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 창고(INVENTORY) 기능 API 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소비자 API - 회원/주소관리 API 통합/기능연동 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 농작물/상품관리 API 통합/기능연동 및 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 관리자API 상품 등록 로직 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+  </si>
+  <si>
+    <t>/account/login</t>
+  </si>
+  <si>
+    <t>로그인 화면 반환</t>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+  </si>
+  <si>
+    <t>/account/register</t>
+  </si>
+  <si>
+    <t>회원가입 화면 반환</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>/api/account/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>본문: x-www-form-urlencoded(loginId, userPw) / 응답: "success" 또는 "fail" / 성공 시 세션에 userId 저장</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+  </si>
+  <si>
+    <t>/api/account/logout</t>
+  </si>
+  <si>
+    <t>세션 무효화 / 응답: "logout success" 또는 204</t>
+  </si>
+  <si>
+    <t>/api/account/register</t>
+  </si>
+  <si>
+    <t>본문: x-www-form-urlencoded(...) / 응답: "success" 또는 "fail"</t>
+  </si>
+  <si>
+    <t>중복 아이디 체크</t>
+  </si>
+  <si>
+    <t>/api/account/idcheck</t>
+  </si>
+  <si>
+    <t>본문: x-www-form-urlencoded(loginId) / 응답: "dup" 또는 "unique"</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>계정API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 전용 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 농작물 조회</t>
+  </si>
+  <si>
+    <t>/{cropId}</t>
+  </si>
+  <si>
+    <t>전체 농작물 조회</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>농작물 추가</t>
+  </si>
+  <si>
+    <t>농작물 삭제</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>농작물 수정</t>
+  </si>
+  <si>
+    <t>농작물 활성화</t>
+  </si>
+  <si>
+    <t>/enable/{cropId}</t>
+  </si>
+  <si>
+    <t>농작물 비활성화</t>
+  </si>
+  <si>
+    <t>/disable/{cropId}</t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop</t>
+  </si>
+  <si>
+    <t>/shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 주소 관리 메서드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 조회</t>
+  </si>
+  <si>
+    <t>주소 수정</t>
+  </si>
+  <si>
+    <t>/update</t>
+  </si>
+  <si>
+    <t>상품 목록 조회 (관리자 전용)</t>
+  </si>
+  <si>
+    <t>상품 등록 html</t>
+  </si>
+  <si>
+    <t>/shop/additem</t>
+  </si>
+  <si>
+    <t>상품 등록</t>
+  </si>
+  <si>
+    <t>상품 수정</t>
+  </si>
+  <si>
+    <t>/shop/item/{id}</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>상품 삭제</t>
+  </si>
+  <si>
+    <t>/order</t>
+  </si>
+  <si>
+    <t>주문 상세 조회</t>
+  </si>
+  <si>
+    <t>/order/{id}</t>
+  </si>
+  <si>
+    <t>주문 상태 변경</t>
+  </si>
+  <si>
+    <t>/order/status/{id}</t>
+  </si>
+  <si>
     <t>PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/order/cancel/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) /common/products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory</t>
+  </si>
+  <si>
+    <t>창고 관리 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 조회</t>
+  </si>
+  <si>
+    <t>주소 목록 조회 페이지</t>
+  </si>
+  <si>
+    <t>/address</t>
+  </si>
+  <si>
+    <t>목록 화면</t>
+  </si>
+  <si>
+    <t>사용자 주소 목록 전부 조회</t>
+  </si>
+  <si>
+    <t>/api/address</t>
+  </si>
+  <si>
+    <t>응답: JSON 목록(로그인 필요)</t>
+  </si>
+  <si>
+    <t>사용자 주소 추가</t>
+  </si>
+  <si>
+    <t>/api/address/insert/</t>
+  </si>
+  <si>
+    <t>본문: 주소 정보(JSON)</t>
+  </si>
+  <si>
+    <t>사용자 주소 수정</t>
+  </si>
+  <si>
+    <t>/api/address/update/</t>
+  </si>
+  <si>
+    <t>본문: 주소 정보(JSON, addressId 포함)</t>
+  </si>
+  <si>
+    <t>사용자 주소 삭제</t>
+  </si>
+  <si>
+    <t>/api/address/delete/</t>
+  </si>
+  <si>
+    <t>본문: { "addressId": ... }</t>
   </si>
   <si>
     <t>주소 관리 메서드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/address/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
-  </si>
-  <si>
-    <t>페이지 명칭 (URL 예시)</t>
-  </si>
-  <si>
-    <t>역할 및 내용</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>로그인 폼</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>회원가입 폼</t>
-  </si>
-  <si>
-    <t>index.html</t>
-  </si>
-  <si>
-    <t>메인 페이지, 주요 상품 노출</t>
-  </si>
-  <si>
-    <t>기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할 및 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/join.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통파트 - 회원/로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0. 메인파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 내역 조회, 수량 변경, 일부/전체 주문 기능</t>
-  </si>
-  <si>
-    <t>상품 목록</t>
-  </si>
-  <si>
-    <t>product/list.html</t>
-  </si>
-  <si>
-    <t>상품 상세</t>
-  </si>
-  <si>
-    <t>product/detail.html</t>
-  </si>
-  <si>
-    <t>모든 농작물 목록, 검색 및 필터 기능 포함</t>
-  </si>
-  <si>
-    <t>단일 농작물 상세 정보, 장바구니 담기, Sold Out 표시</t>
-  </si>
-  <si>
-    <t>주문/결제</t>
-  </si>
-  <si>
-    <t>주문 내역 조회</t>
-  </si>
-  <si>
-    <t>주문 상세</t>
-  </si>
-  <si>
-    <t>특정 주문의 상세 정보</t>
-  </si>
-  <si>
-    <t>배송지 관리</t>
-  </si>
-  <si>
-    <t>배송지 추가/수정/삭제 폼</t>
-  </si>
-  <si>
-    <t>주문 내역 전체 조회, 취소 가능 상태 확인</t>
-  </si>
-  <si>
-    <t>관리자 홈</t>
-  </si>
-  <si>
-    <t>admin/dashboard.html</t>
-  </si>
-  <si>
-    <t>관리자 대시보드 (주요 통계 요약)</t>
-  </si>
-  <si>
-    <t>농작물 등록/관리</t>
-  </si>
-  <si>
-    <t>admin/farm/manage.html</t>
-  </si>
-  <si>
-    <t>농작물 추가/삭제/활성화/비활성화 폼 및 목록</t>
-  </si>
-  <si>
-    <t>상품 등록/관리</t>
-  </si>
-  <si>
-    <t>admin/product/manage.html</t>
-  </si>
-  <si>
-    <t>판매 상품 등록 및 게시 중단 기능 목록</t>
-  </si>
-  <si>
-    <t>주문 조회/처리</t>
-  </si>
-  <si>
-    <t>admin/order/list.html</t>
-  </si>
-  <si>
-    <t>통계/정산</t>
-  </si>
-  <si>
-    <t>admin/stats/main.html</t>
-  </si>
-  <si>
-    <t>일자별/품목별 통계, 정산 내역 조회</t>
-  </si>
-  <si>
-    <t>소비자 주문 목록 조회, 주문 상태 변경, 송장 번호 입력</t>
-  </si>
-  <si>
-    <t>페이지 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 사용자 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 관리자 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제, 주소지 정보 입력 주문 확정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prontend_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prontend_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prontend_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* GitHub_NamingRule</t>
+    <t>관리자API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/api/address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 API (RestController, JSON)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 농장관리 판매 팀 프로젝트#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,15 +1240,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 헤더/푸터 파트</t>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장경국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -427,1005 +1284,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장경국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/cart.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/checkout.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/orderList.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/orderDetail.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product/address.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송정보입력(옵션)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제하기(주문결제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택상품주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체상품주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문배송관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원/로그인</t>
-  </si>
-  <si>
-    <t>회원가입 기능</t>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-  </si>
-  <si>
-    <t>관리자 계정으로 로그인 하면 관리 사이트로 넘어간다.</t>
-  </si>
-  <si>
-    <t>상품/농작물 등록·관리</t>
-  </si>
-  <si>
-    <t>농작물 추가 기능</t>
-  </si>
-  <si>
-    <t>농작물 삭제 기능</t>
-  </si>
-  <si>
-    <t>농작물 재배 활성화/비활성화 기능</t>
-  </si>
-  <si>
-    <t>상품 등록 및 관리</t>
-  </si>
-  <si>
-    <t>창고에 있는 만큼의 농작물을 등록할 수 있다.</t>
-  </si>
-  <si>
-    <t>등록되어 있는 농작물은 게시를 중단할 수 있다.</t>
-  </si>
-  <si>
-    <t>검색/탐색</t>
-  </si>
-  <si>
-    <t>상품 검색 기능 (수확시기 등으로 필터 적용)</t>
-  </si>
-  <si>
-    <t>판매 사이트에 올라와 있는 농작물을 볼 수 있다.</t>
-  </si>
-  <si>
-    <t>장바구니/주문·결제</t>
-  </si>
-  <si>
-    <t>상품 장바구니 기능</t>
-  </si>
-  <si>
-    <t>농작물의 페이지로 들어가 개수를 지정해서 장바구니에 담을 수 있다.</t>
-  </si>
-  <si>
-    <t>장바구니에 있는 농작물의 일부 혹은 전부 구매할 수 있다.</t>
-  </si>
-  <si>
-    <t>주문 조회/처리 - (관리자)</t>
-  </si>
-  <si>
-    <t>소비자가 주문한 농작물 조회 기능</t>
-  </si>
-  <si>
-    <t>주문 상태 변경 기능 → 배송 중으로 변경</t>
-  </si>
-  <si>
-    <t>배송 처리(주문 상품별 송장 번호 및 택배사 정보 입력)</t>
-  </si>
-  <si>
-    <t>주문 조회/처리(취소) - (사용자)</t>
-  </si>
-  <si>
-    <t>재고/노출 관리 - (사용자)</t>
-  </si>
-  <si>
-    <t>통계/정산 - (관리자)</t>
-  </si>
-  <si>
-    <t>농작물 주문 통계 기능 (일자별/품목별 판매시 cnt++)</t>
-  </si>
-  <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t>정산(판매 내역, 금액 조회)</t>
-  </si>
-  <si>
-    <t>계정/주소·계좌 관리</t>
-  </si>
-  <si>
-    <t>사용자</t>
-  </si>
-  <si>
-    <t>농가 정보, 계좌 등록</t>
-  </si>
-  <si>
-    <t>물품 상태가 배송 중으로 바뀌기 전에는 주문을 취소할 수 있다.</t>
-  </si>
-  <si>
-    <t>요구 사항 정리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (품절 표기는 재고/노출과 연관, 배송 맥락과 함께 노출되는 문구로 함께 묶음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 사용자는 판매 페이지에서 재고가 없는 농작물은 자동으로 sold out 처리된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●</t>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제선정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login/Register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3주차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 및 UseCase 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB &amp; ERD Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API 및 각 파트별 기능설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript/JQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyBatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User purchase order/cart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop Item Searching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order Managing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crops / Inventories managing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Troubleshooting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 아이템 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 결과 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/orderlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 구매 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자는 구매한 물품의 총 개수와 가격을 확인하여 구매할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비자는 구매한 물품의 총 개수와 가격을 조회할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비자가 주문한 주문 내역 조회/취소 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 목록 조회</t>
-  </si>
-  <si>
-    <t>/orders</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>장바구니에 아이템 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주소 관리 메서드에 주소 삭제 메서드 추가</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어드민 관리 페이지 입장 url 및 controller 방식을 REST API 방식으로 수정한 api 추가</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소비자 주소 관리 메서드 Controller와 RestController 방식으로 분리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어드민 농작물 관리 페이지 및 controller 방식을 REST API 방식으로 수정</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 어드민 농장 주소 관리 API 구현</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 작물 및 창고 항목 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회원가입 ID 중복 확인 및 처리 기능 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 상품관리 페이지 등 유효성 검사 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 로그인 관리 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 주소 관리 기능 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소비자 주문 관리 API 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소비자 구매/장바구니 API 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 일부 테이블 성능 향상 및 무결성 확보를 위한 테이블 비정규화 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 창고(INVENTORY) 기능 API 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소비자 API - 회원/주소관리 API 통합/기능연동 및 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 농작물/상품관리 API 통합/기능연동 및 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 관리자API 상품 등록 로직 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지</t>
-  </si>
-  <si>
-    <t>/account/login</t>
-  </si>
-  <si>
-    <t>로그인 화면 반환</t>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-  </si>
-  <si>
-    <t>/account/register</t>
-  </si>
-  <si>
-    <t>회원가입 화면 반환</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>/api/account/login</t>
+    <t>공통API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원 및 담당파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박인우(Coding404)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인 가구, 1인 경영 시대에 최적화된 스마트 농산물 자동화 플랫폼 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 주제선정 및 요구사항 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기능통합 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 USE CASE 문서 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 데이터베이스 ERD 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 및 Design 컨셉 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 파트 별 역할 분담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 DB Table 설계 및 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 정합성체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 (Controller, SSR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 페이지 권한 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인이 필요한 url(path)에 대해 login 페이지로 redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인된 사용자의 장바구니 목록을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 상품을 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 아이템 개수 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cart/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>본문: x-www-form-urlencoded(loginId, userPw) / 응답: "success" 또는 "fail" / 성공 시 세션에 userId 저장</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>/api/account/logout</t>
-  </si>
-  <si>
-    <t>세션 무효화 / 응답: "logout success" 또는 204</t>
-  </si>
-  <si>
-    <t>/api/account/register</t>
-  </si>
-  <si>
-    <t>본문: x-www-form-urlencoded(...) / 응답: "success" 또는 "fail"</t>
-  </si>
-  <si>
-    <t>중복 아이디 체크</t>
-  </si>
-  <si>
-    <t>/api/account/idcheck</t>
-  </si>
-  <si>
-    <t>본문: x-www-form-urlencoded(loginId) / 응답: "dup" 또는 "unique"</t>
-  </si>
-  <si>
-    <t>/admin</t>
-  </si>
-  <si>
-    <t>계정API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 전용 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 농작물 조회</t>
-  </si>
-  <si>
-    <t>/{cropId}</t>
-  </si>
-  <si>
-    <t>전체 농작물 조회</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>농작물 추가</t>
-  </si>
-  <si>
-    <t>농작물 삭제</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>농작물 수정</t>
-  </si>
-  <si>
-    <t>농작물 활성화</t>
-  </si>
-  <si>
-    <t>/enable/{cropId}</t>
-  </si>
-  <si>
-    <t>농작물 비활성화</t>
-  </si>
-  <si>
-    <t>/disable/{cropId}</t>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/shop</t>
-  </si>
-  <si>
-    <t>/shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농장 주소 관리 메서드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 조회</t>
-  </si>
-  <si>
-    <t>주소 수정</t>
-  </si>
-  <si>
-    <t>/update</t>
-  </si>
-  <si>
-    <t>상품 목록 조회 (관리자 전용)</t>
-  </si>
-  <si>
-    <t>상품 등록 html</t>
-  </si>
-  <si>
-    <t>/shop/additem</t>
-  </si>
-  <si>
-    <t>상품 등록</t>
-  </si>
-  <si>
-    <t>상품 수정</t>
-  </si>
-  <si>
-    <t>/shop/item/{id}</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>상품 삭제</t>
-  </si>
-  <si>
-    <t>/order</t>
-  </si>
-  <si>
-    <t>주문 상세 조회</t>
-  </si>
-  <si>
-    <t>/order/{id}</t>
-  </si>
-  <si>
-    <t>주문 상태 변경</t>
-  </si>
-  <si>
-    <t>/order/status/{id}</t>
-  </si>
-  <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>/inventory</t>
-  </si>
-  <si>
-    <t>창고 관리 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고 조회</t>
-  </si>
-  <si>
-    <t>주소 목록 조회 페이지</t>
-  </si>
-  <si>
-    <t>/address</t>
-  </si>
-  <si>
-    <t>목록 화면</t>
-  </si>
-  <si>
-    <t>사용자 주소 목록 전부 조회</t>
-  </si>
-  <si>
-    <t>/api/address</t>
-  </si>
-  <si>
-    <t>응답: JSON 목록(로그인 필요)</t>
-  </si>
-  <si>
-    <t>사용자 주소 추가</t>
-  </si>
-  <si>
-    <t>/api/address/insert/</t>
-  </si>
-  <si>
-    <t>본문: 주소 정보(JSON)</t>
-  </si>
-  <si>
-    <t>사용자 주소 수정</t>
-  </si>
-  <si>
-    <t>/api/address/update/</t>
-  </si>
-  <si>
-    <t>본문: 주소 정보(JSON, addressId 포함)</t>
-  </si>
-  <si>
-    <t>사용자 주소 삭제</t>
-  </si>
-  <si>
-    <t>/api/address/delete/</t>
-  </si>
-  <si>
-    <t>본문: { "addressId": ... }</t>
-  </si>
-  <si>
-    <t>주소 관리 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/api/address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백엔드 API (RestController, JSON)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인 농장관리 판매 팀 프로젝트#1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강승태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이경훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장경국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소비API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허정우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도강사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당강사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원 및 담당파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박인우(Coding404)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인 가구, 1인 경영 시대에 최적화된 스마트 농산물 자동화 플랫폼 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 주제선정 및 요구사항 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기능통합 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 USE CASE 문서 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 데이터베이스 ERD 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 및 Design 컨셉 회의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 파트 별 역할 분담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 DB Table 설계 및 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 정합성체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 (Controller, SSR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 페이지 권한 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인이 필요한 url(path)에 대해 login 페이지로 redirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 로그인된 사용자의 장바구니 목록을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 상품을 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 아이템 개수 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cart/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 상품의 개수를 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 상품에 대해 장바구니에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/placeorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 선택한 품목과 수량, 단가 및 배송지 정보 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상품 및 수량, 배송지 정보 입력 등 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인된 사용자의 전체 주문에 대해 요약한 목록 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 주문에 대해 상품 및 배송지 등 자세한 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 주문건에 대해 '배송중' 또는 '배송 완료'인 상태가 아니라면 주문 취소 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 상품의 개수를 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 상품에 대해 장바구니에 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/placeorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 선택한 품목과 수량, 단가 및 배송지 정보 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상품 및 수량, 배송지 정보 입력 등 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 로그인된 사용자의 전체 주문에 대해 요약한 목록 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 주문에 대해 상품 및 배송지 등 자세한 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 주문건에 대해 '배송중' 또는 '배송 완료'인 상태가 아니라면 주문 취소 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2214,6 +2213,111 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2235,143 +2339,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2747,7 +2746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2757,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2954,22 +2953,22 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="92" t="s">
-        <v>328</v>
-      </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="93" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
       <c r="V9" s="19"/>
       <c r="W9" s="18"/>
       <c r="X9" s="18"/>
@@ -2982,21 +2981,21 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
       <c r="V10" s="19"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
@@ -3009,21 +3008,21 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
       <c r="V11" s="19"/>
       <c r="W11" s="18"/>
       <c r="X11" s="18"/>
@@ -3036,21 +3035,21 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
       <c r="V12" s="19"/>
       <c r="W12" s="18"/>
       <c r="X12" s="18"/>
@@ -3066,18 +3065,18 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="19"/>
       <c r="W13" s="18"/>
       <c r="X13" s="18"/>
@@ -3170,23 +3169,23 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
       <c r="W17" s="18"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -3198,7 +3197,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -3253,23 +3252,23 @@
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -3566,21 +3565,21 @@
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="97"/>
+      <c r="M34" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="79"/>
       <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3595,19 +3594,19 @@
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="100"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="81"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="82"/>
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3622,25 +3621,25 @@
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
-      <c r="M36" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="N36" s="96" t="s">
-        <v>343</v>
-      </c>
-      <c r="O36" s="97"/>
-      <c r="P36" s="95" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="97"/>
+      <c r="M36" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="N36" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="O36" s="79"/>
+      <c r="P36" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
       <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3655,21 +3654,21 @@
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="98" t="s">
-        <v>344</v>
-      </c>
-      <c r="N37" s="99"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="100"/>
+      <c r="M37" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="N37" s="81"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="81"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="82"/>
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3684,27 +3683,27 @@
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="95" t="s">
+      <c r="M38" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="N38" s="78"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="87" t="s">
         <v>329</v>
       </c>
-      <c r="N38" s="96"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="107" t="s">
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="101" t="s">
+      <c r="U38" s="84"/>
+      <c r="V38" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="U38" s="103"/>
-      <c r="V38" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="103"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="84"/>
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3719,19 +3718,19 @@
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="105"/>
-      <c r="X39" s="105"/>
-      <c r="Y39" s="106"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="86"/>
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3746,27 +3745,27 @@
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
-      <c r="M40" s="95" t="s">
+      <c r="M40" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N40" s="78"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="N40" s="96"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="107" t="s">
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="109"/>
-      <c r="T40" s="101" t="s">
+      <c r="U40" s="84"/>
+      <c r="V40" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="U40" s="103"/>
-      <c r="V40" s="107" t="s">
-        <v>336</v>
-      </c>
-      <c r="W40" s="102"/>
-      <c r="X40" s="102"/>
-      <c r="Y40" s="103"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="84"/>
       <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3781,19 +3780,19 @@
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="100"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="105"/>
-      <c r="Y41" s="106"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="89"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="89"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="86"/>
       <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3808,27 +3807,27 @@
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
-      <c r="M42" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="N42" s="96"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="107" t="s">
+      <c r="M42" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N42" s="78"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="U42" s="84"/>
+      <c r="V42" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="102"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="U42" s="103"/>
-      <c r="V42" s="107" t="s">
-        <v>338</v>
-      </c>
-      <c r="W42" s="102"/>
-      <c r="X42" s="102"/>
-      <c r="Y42" s="103"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="84"/>
       <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3843,19 +3842,19 @@
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="100"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="110"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="108"/>
-      <c r="W43" s="105"/>
-      <c r="X43" s="105"/>
-      <c r="Y43" s="106"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="86"/>
       <c r="Z43" s="19"/>
     </row>
     <row r="44" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3870,27 +3869,27 @@
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="N44" s="96"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="107" t="s">
+      <c r="M44" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N44" s="78"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="U44" s="84"/>
+      <c r="V44" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="102"/>
-      <c r="S44" s="109"/>
-      <c r="T44" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="U44" s="103"/>
-      <c r="V44" s="107" t="s">
-        <v>340</v>
-      </c>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="103"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="84"/>
       <c r="Z44" s="19"/>
     </row>
     <row r="45" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3905,19 +3904,19 @@
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="100"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105"/>
-      <c r="Y45" s="106"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="86"/>
       <c r="Z45" s="19"/>
     </row>
     <row r="46" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3932,27 +3931,27 @@
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="N46" s="96"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="107" t="s">
+      <c r="M46" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="N46" s="78"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="U46" s="84"/>
+      <c r="V46" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="U46" s="103"/>
-      <c r="V46" s="107" t="s">
-        <v>342</v>
-      </c>
-      <c r="W46" s="102"/>
-      <c r="X46" s="102"/>
-      <c r="Y46" s="103"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="84"/>
       <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="2:26" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3967,19 +3966,19 @@
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="100"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="104"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="105"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="106"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="89"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="86"/>
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="2:26" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4038,12 +4037,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="P36:Y37"/>
-    <mergeCell ref="M38:O39"/>
-    <mergeCell ref="M36:O37"/>
-    <mergeCell ref="M40:O41"/>
-    <mergeCell ref="M34:Y35"/>
-    <mergeCell ref="T40:U41"/>
+    <mergeCell ref="J9:U12"/>
+    <mergeCell ref="T38:U39"/>
+    <mergeCell ref="P42:S43"/>
+    <mergeCell ref="P44:S45"/>
+    <mergeCell ref="P46:S47"/>
+    <mergeCell ref="M42:O43"/>
+    <mergeCell ref="M44:O45"/>
+    <mergeCell ref="M46:O47"/>
     <mergeCell ref="T42:U43"/>
     <mergeCell ref="T44:U45"/>
     <mergeCell ref="T46:U47"/>
@@ -4052,16 +4053,14 @@
     <mergeCell ref="V42:Y43"/>
     <mergeCell ref="V44:Y45"/>
     <mergeCell ref="V46:Y47"/>
+    <mergeCell ref="P36:Y37"/>
+    <mergeCell ref="M38:O39"/>
+    <mergeCell ref="M36:O37"/>
+    <mergeCell ref="M40:O41"/>
+    <mergeCell ref="M34:Y35"/>
+    <mergeCell ref="T40:U41"/>
     <mergeCell ref="P38:S39"/>
     <mergeCell ref="P40:S41"/>
-    <mergeCell ref="P42:S43"/>
-    <mergeCell ref="P44:S45"/>
-    <mergeCell ref="P46:S47"/>
-    <mergeCell ref="M42:O43"/>
-    <mergeCell ref="M44:O45"/>
-    <mergeCell ref="M46:O47"/>
-    <mergeCell ref="J9:U12"/>
-    <mergeCell ref="T38:U39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4074,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4087,163 +4086,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
     </row>
     <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
     </row>
     <row r="5" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
+      <c r="D5" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" t="s">
         <v>255</v>
-      </c>
-      <c r="E7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" t="s">
         <v>360</v>
-      </c>
-      <c r="E8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4252,121 +4251,121 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
+      <c r="D11" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
         <v>248</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
         <v>260</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
         <v>263</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
     </row>
     <row r="17" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
+      <c r="D17" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4379,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -4387,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -4405,434 +4404,434 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
     </row>
     <row r="25" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
     </row>
     <row r="26" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
+      <c r="D26" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="84" t="s">
-        <v>265</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="28" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="D29" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
     </row>
     <row r="30" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
     </row>
     <row r="31" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
         <v>269</v>
       </c>
-      <c r="B31" t="s">
-        <v>270</v>
-      </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" t="s">
         <v>271</v>
       </c>
-      <c r="B32" t="s">
-        <v>272</v>
-      </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
         <v>274</v>
-      </c>
-      <c r="B34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" t="s">
         <v>277</v>
       </c>
-      <c r="B36" t="s">
-        <v>278</v>
-      </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
         <v>279</v>
       </c>
-      <c r="B37" t="s">
-        <v>280</v>
-      </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
+      <c r="D39" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
     </row>
     <row r="40" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
+        <v>286</v>
+      </c>
+      <c r="B40" s="95" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
     </row>
     <row r="41" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
         <v>251</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>252</v>
-      </c>
-      <c r="C41" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" t="s">
         <v>289</v>
       </c>
-      <c r="B43" t="s">
-        <v>290</v>
-      </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
+      <c r="D45" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
     </row>
     <row r="46" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
+      <c r="B46" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
     </row>
     <row r="47" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4840,246 +4839,246 @@
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="86" t="s">
+      <c r="B53" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
+      <c r="D53" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
     </row>
     <row r="54" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
     </row>
     <row r="55" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
         <v>300</v>
       </c>
-      <c r="B56" t="s">
-        <v>301</v>
-      </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s">
         <v>302</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
+      <c r="D59" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="97"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
     </row>
     <row r="60" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B60" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
+      <c r="B60" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
     </row>
     <row r="61" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="66" t="s">
+      <c r="A63" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
     </row>
     <row r="65" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
+      <c r="O65" s="101"/>
     </row>
     <row r="66" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="86" t="s">
+      <c r="B66" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="87"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="87"/>
+      <c r="D66" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="97"/>
+      <c r="O66" s="97"/>
     </row>
     <row r="67" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
+      <c r="B67" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
     </row>
     <row r="68" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -5092,12 +5091,12 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -5106,12 +5105,12 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -5120,68 +5119,68 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
         <v>365</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>366</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>367</v>
-      </c>
-      <c r="D71" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
     </row>
     <row r="74" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" t="s">
         <v>214</v>
-      </c>
-      <c r="B74" t="s">
-        <v>215</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s">
         <v>220</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>221</v>
       </c>
-      <c r="C75" t="s">
-        <v>222</v>
-      </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -5195,21 +5194,21 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" t="s">
         <v>370</v>
       </c>
-      <c r="B77" t="s">
-        <v>371</v>
-      </c>
       <c r="C77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -5217,40 +5216,40 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="113" t="s">
         <v>376</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="85"/>
-      <c r="M80" s="85"/>
-      <c r="N80" s="85"/>
-      <c r="O80" s="85"/>
+        <v>31</v>
+      </c>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="95"/>
+      <c r="L80" s="95"/>
+      <c r="M80" s="95"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="95"/>
     </row>
     <row r="81" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
         <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>34</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -5258,233 +5257,219 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
         <v>35</v>
-      </c>
-      <c r="B82" t="s">
-        <v>36</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="88" t="s">
+      <c r="A85" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="C85" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="C85" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E85" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
+      <c r="D85" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
+      <c r="K85" s="94"/>
+      <c r="L85" s="94"/>
+      <c r="M85" s="94"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
     </row>
     <row r="86" spans="1:15" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
-      <c r="K86" s="90"/>
-      <c r="L86" s="90"/>
-      <c r="M86" s="90"/>
-      <c r="N86" s="90"/>
-      <c r="O86" s="90"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="96"/>
+      <c r="M86" s="96"/>
+      <c r="N86" s="96"/>
+      <c r="O86" s="96"/>
     </row>
     <row r="87" spans="1:15" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-      <c r="O87" s="85"/>
+        <v>322</v>
+      </c>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="95"/>
+      <c r="I87" s="95"/>
+      <c r="J87" s="95"/>
+      <c r="K87" s="95"/>
+      <c r="L87" s="95"/>
+      <c r="M87" s="95"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="95"/>
     </row>
     <row r="88" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="81" t="s">
-        <v>357</v>
+      <c r="A88" s="63" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="88" t="s">
+      <c r="C89" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="C89" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="D89" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E89" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="91"/>
-      <c r="O89" s="91"/>
+      <c r="D89" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" s="94"/>
+      <c r="G89" s="94"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="94"/>
+      <c r="L89" s="94"/>
+      <c r="M89" s="94"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="94"/>
     </row>
     <row r="90" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" t="s">
         <v>308</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" t="s">
         <v>309</v>
       </c>
-      <c r="C90" t="s">
-        <v>222</v>
-      </c>
-      <c r="D90" t="s">
-        <v>310</v>
-      </c>
       <c r="E90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="81" t="s">
-        <v>327</v>
+      <c r="A92" s="63" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="88" t="s">
+      <c r="A93" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="68" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="C93" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="C93" s="88" t="s">
-        <v>284</v>
-      </c>
-      <c r="D93" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E93" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="91"/>
-      <c r="K93" s="91"/>
-      <c r="L93" s="91"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="O93" s="91"/>
+      <c r="D93" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="94"/>
     </row>
     <row r="94" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>310</v>
+      </c>
+      <c r="B94" t="s">
         <v>311</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94" t="s">
         <v>312</v>
-      </c>
-      <c r="C94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" t="s">
         <v>314</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+      <c r="E95" t="s">
         <v>315</v>
-      </c>
-      <c r="C95" t="s">
-        <v>255</v>
-      </c>
-      <c r="E95" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" t="s">
         <v>317</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>254</v>
+      </c>
+      <c r="E96" t="s">
         <v>318</v>
-      </c>
-      <c r="C96" t="s">
-        <v>255</v>
-      </c>
-      <c r="E96" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97" t="s">
         <v>320</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>254</v>
+      </c>
+      <c r="E97" t="s">
         <v>321</v>
-      </c>
-      <c r="C97" t="s">
-        <v>255</v>
-      </c>
-      <c r="E97" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E89:O89"/>
-    <mergeCell ref="E93:O93"/>
-    <mergeCell ref="B67:O67"/>
-    <mergeCell ref="B73:O73"/>
-    <mergeCell ref="B80:O80"/>
-    <mergeCell ref="B87:O87"/>
-    <mergeCell ref="B86:O86"/>
-    <mergeCell ref="E85:O85"/>
-    <mergeCell ref="E66:O66"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="B60:O60"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="A22:O24"/>
     <mergeCell ref="A63:O65"/>
@@ -5500,6 +5485,20 @@
     <mergeCell ref="E45:O45"/>
     <mergeCell ref="E53:O53"/>
     <mergeCell ref="E59:O59"/>
+    <mergeCell ref="E66:O66"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="B60:O60"/>
+    <mergeCell ref="E89:O89"/>
+    <mergeCell ref="E93:O93"/>
+    <mergeCell ref="B67:O67"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="B80:O80"/>
+    <mergeCell ref="B87:O87"/>
+    <mergeCell ref="B86:O86"/>
+    <mergeCell ref="E85:O85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5529,520 +5528,520 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="A1" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
     </row>
     <row r="5" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>98</v>
+      <c r="D7" s="103" t="s">
+        <v>97</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="103"/>
       <c r="G8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="68"/>
+      <c r="D9" s="103"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="103"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
+      <c r="A12" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
     </row>
     <row r="15" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="Q16" s="67" t="s">
+      <c r="R16" s="102"/>
+      <c r="S16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="R16" s="67"/>
-      <c r="S16" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>98</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="S17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="D18" s="103"/>
       <c r="S18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="68"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="103"/>
       <c r="Q19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S19" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="68"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="103"/>
       <c r="S20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="68"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="103"/>
       <c r="S21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="103"/>
       <c r="S22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="103"/>
       <c r="Q23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
+      <c r="A25" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
       <c r="Q25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="S26" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="S26" s="4" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="Q27" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="Q27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>94</v>
+      <c r="D30" s="103" t="s">
+        <v>93</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="68"/>
+      <c r="D31" s="103"/>
       <c r="R31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="68"/>
+      <c r="D32" s="103"/>
       <c r="S32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="68"/>
+        <v>82</v>
+      </c>
+      <c r="D33" s="103"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="68"/>
+      <c r="D34" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6065,7 +6064,7 @@
   <dimension ref="B3:X29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6074,31 +6073,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="72" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
+      <c r="B3" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D4" s="13"/>
@@ -6124,10 +6123,10 @@
     </row>
     <row r="5" spans="2:24" ht="24" x14ac:dyDescent="0.3">
       <c r="D5" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -6138,10 +6137,10 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -6155,10 +6154,10 @@
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D6" s="16"/>
       <c r="E6" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -6169,10 +6168,10 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -6185,10 +6184,10 @@
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D7" s="16"/>
       <c r="E7" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -6200,7 +6199,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
@@ -6214,7 +6213,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="24"/>
       <c r="F8" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6226,7 +6225,7 @@
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -6260,10 +6259,10 @@
     </row>
     <row r="10" spans="2:24" ht="24" x14ac:dyDescent="0.3">
       <c r="D10" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -6274,10 +6273,10 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -6291,10 +6290,10 @@
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D11" s="16"/>
       <c r="E11" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -6305,10 +6304,10 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
@@ -6321,10 +6320,10 @@
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" s="16"/>
       <c r="E12" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6336,7 +6335,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -6349,10 +6348,10 @@
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D13" s="16"/>
       <c r="E13" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6364,7 +6363,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="24"/>
       <c r="P13" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
@@ -6377,10 +6376,10 @@
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" s="16"/>
       <c r="E14" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6401,7 +6400,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6411,10 +6410,10 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
@@ -6429,7 +6428,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -6440,10 +6439,10 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -6467,7 +6466,7 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
@@ -6479,10 +6478,10 @@
     </row>
     <row r="18" spans="4:23" ht="24" x14ac:dyDescent="0.3">
       <c r="D18" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -6506,10 +6505,10 @@
     <row r="19" spans="4:23" ht="24" x14ac:dyDescent="0.3">
       <c r="D19" s="16"/>
       <c r="E19" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -6519,10 +6518,10 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -6537,7 +6536,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="18"/>
       <c r="F20" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6548,10 +6547,10 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
@@ -6575,7 +6574,7 @@
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
@@ -6587,10 +6586,10 @@
     </row>
     <row r="22" spans="4:23" ht="24" x14ac:dyDescent="0.3">
       <c r="D22" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -6602,10 +6601,10 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -6618,10 +6617,10 @@
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -6645,7 +6644,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -6655,10 +6654,10 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -6673,7 +6672,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -6685,7 +6684,7 @@
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
@@ -6698,10 +6697,10 @@
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -6712,10 +6711,10 @@
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -6728,7 +6727,7 @@
     <row r="27" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="F27" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -6740,7 +6739,7 @@
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
@@ -6761,10 +6760,10 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
@@ -6830,143 +6829,143 @@
     <row r="1" spans="2:31" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="D3" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="111"/>
+    </row>
+    <row r="4" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="R4" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="77" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="79"/>
-    </row>
-    <row r="4" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="71"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="61" t="s">
+      <c r="S4" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="T4" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="U4" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="V4" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="W4" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="X4" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="Y4" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="K4" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="M4" s="61" t="s">
+      <c r="Z4" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA4" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB4" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="N4" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="61" t="s">
+      <c r="AC4" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD4" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="AE4" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="R4" s="61" t="s">
+    </row>
+    <row r="5" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="U4" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="V4" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="W4" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="X4" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y4" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z4" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA4" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB4" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC4" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD4" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE4" s="61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="70" t="s">
+      <c r="C5" s="62" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
@@ -6998,9 +6997,9 @@
       <c r="AE5" s="43"/>
     </row>
     <row r="6" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31"/>
@@ -7032,11 +7031,11 @@
       <c r="AE6" s="32"/>
     </row>
     <row r="7" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="70" t="s">
-        <v>196</v>
+      <c r="B7" s="112" t="s">
+        <v>195</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
@@ -7068,9 +7067,9 @@
       <c r="AE7" s="43"/>
     </row>
     <row r="8" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="71"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -7102,11 +7101,11 @@
       <c r="AE8" s="32"/>
     </row>
     <row r="9" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
-        <v>177</v>
+      <c r="B9" s="112" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="41"/>
@@ -7138,9 +7137,9 @@
       <c r="AE9" s="43"/>
     </row>
     <row r="10" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="71"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
@@ -7172,11 +7171,11 @@
       <c r="AE10" s="32"/>
     </row>
     <row r="11" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="70" t="s">
-        <v>178</v>
+      <c r="B11" s="112" t="s">
+        <v>177</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -7208,9 +7207,9 @@
       <c r="AE11" s="43"/>
     </row>
     <row r="12" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="72"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="26"/>
@@ -7242,9 +7241,9 @@
       <c r="AE12" s="29"/>
     </row>
     <row r="13" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="72"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="26"/>
@@ -7276,9 +7275,9 @@
       <c r="AE13" s="29"/>
     </row>
     <row r="14" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="72"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="26"/>
@@ -7310,9 +7309,9 @@
       <c r="AE14" s="29"/>
     </row>
     <row r="15" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="71"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
@@ -7344,11 +7343,11 @@
       <c r="AE15" s="32"/>
     </row>
     <row r="16" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="70" t="s">
-        <v>179</v>
+      <c r="B16" s="112" t="s">
+        <v>178</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="41"/>
@@ -7380,9 +7379,9 @@
       <c r="AE16" s="43"/>
     </row>
     <row r="17" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="26"/>
@@ -7414,9 +7413,9 @@
       <c r="AE17" s="29"/>
     </row>
     <row r="18" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="72"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="26"/>
@@ -7448,9 +7447,9 @@
       <c r="AE18" s="29"/>
     </row>
     <row r="19" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="72"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="26"/>
@@ -7482,9 +7481,9 @@
       <c r="AE19" s="29"/>
     </row>
     <row r="20" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="72"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="26"/>
@@ -7516,9 +7515,9 @@
       <c r="AE20" s="29"/>
     </row>
     <row r="21" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="72"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="26"/>
@@ -7550,9 +7549,9 @@
       <c r="AE21" s="29"/>
     </row>
     <row r="22" spans="2:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="71"/>
+      <c r="B22" s="113"/>
       <c r="C22" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
@@ -7586,17 +7585,17 @@
     <row r="23" spans="2:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B22"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7609,7 +7608,7 @@
   <dimension ref="B1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7623,387 +7622,387 @@
   <sheetData>
     <row r="1" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="D2" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="115" t="s">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="75">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73">
+        <v>45966</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="75">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73">
+        <v>45967</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="75">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73">
+        <v>45967</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="75">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73">
+        <v>45968</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="75">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73">
+        <v>45968</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="75">
+        <v>6</v>
+      </c>
+      <c r="C8" s="73">
+        <v>45968</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="75">
+        <v>7</v>
+      </c>
+      <c r="C9" s="73">
+        <v>45968</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="75">
+        <v>8</v>
+      </c>
+      <c r="C10" s="73">
+        <v>45971</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="114">
-        <v>1</v>
-      </c>
-      <c r="C3" s="112">
-        <v>45966</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="114">
-        <v>2</v>
-      </c>
-      <c r="C4" s="112">
-        <v>45967</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="114">
-        <v>3</v>
-      </c>
-      <c r="C5" s="112">
-        <v>45967</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="114">
-        <v>4</v>
-      </c>
-      <c r="C6" s="112">
-        <v>45968</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="114">
-        <v>5</v>
-      </c>
-      <c r="C7" s="112">
-        <v>45968</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="114">
-        <v>6</v>
-      </c>
-      <c r="C8" s="112">
-        <v>45968</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="114">
-        <v>7</v>
-      </c>
-      <c r="C9" s="112">
-        <v>45968</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="114">
-        <v>8</v>
-      </c>
-      <c r="C10" s="112">
-        <v>45971</v>
-      </c>
-      <c r="D10" s="26" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="75">
+        <v>9</v>
+      </c>
+      <c r="C11" s="73">
+        <v>45972</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="114">
-        <v>9</v>
-      </c>
-      <c r="C11" s="112">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="75">
+        <v>10</v>
+      </c>
+      <c r="C12" s="73">
         <v>45972</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D12" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="75">
+        <v>11</v>
+      </c>
+      <c r="C13" s="73">
+        <v>45973</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="114">
-        <v>10</v>
-      </c>
-      <c r="C12" s="112">
-        <v>45972</v>
-      </c>
-      <c r="D12" s="26" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="75">
+        <v>12</v>
+      </c>
+      <c r="C14" s="73">
+        <v>45973</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="114">
-        <v>11</v>
-      </c>
-      <c r="C13" s="112">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="75">
+        <v>13</v>
+      </c>
+      <c r="C15" s="73">
         <v>45973</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D15" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="75">
+        <v>14</v>
+      </c>
+      <c r="C16" s="73">
+        <v>45973</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="75">
+        <v>15</v>
+      </c>
+      <c r="C17" s="73">
+        <v>45973</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="75">
+        <v>16</v>
+      </c>
+      <c r="C18" s="73">
+        <v>45974</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="114">
-        <v>12</v>
-      </c>
-      <c r="C14" s="112">
-        <v>45973</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="114">
-        <v>13</v>
-      </c>
-      <c r="C15" s="112">
-        <v>45973</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="114">
-        <v>14</v>
-      </c>
-      <c r="C16" s="112">
-        <v>45973</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="114">
-        <v>15</v>
-      </c>
-      <c r="C17" s="112">
-        <v>45973</v>
-      </c>
-      <c r="D17" s="26" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="75">
+        <v>17</v>
+      </c>
+      <c r="C19" s="73">
+        <v>45975</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="75">
+        <v>18</v>
+      </c>
+      <c r="C20" s="73">
+        <v>45975</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="75">
+        <v>19</v>
+      </c>
+      <c r="C21" s="73">
+        <v>45975</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="114">
-        <v>16</v>
-      </c>
-      <c r="C18" s="112">
-        <v>45974</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="114">
-        <v>17</v>
-      </c>
-      <c r="C19" s="112">
-        <v>45975</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="114">
-        <v>18</v>
-      </c>
-      <c r="C20" s="112">
-        <v>45975</v>
-      </c>
-      <c r="D20" s="26" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="75">
+        <v>20</v>
+      </c>
+      <c r="C22" s="73">
+        <v>45978</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="114">
-        <v>19</v>
-      </c>
-      <c r="C21" s="112">
-        <v>45975</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="114">
-        <v>20</v>
-      </c>
-      <c r="C22" s="112">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="75">
+        <v>21</v>
+      </c>
+      <c r="C23" s="73">
         <v>45978</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="114">
-        <v>21</v>
-      </c>
-      <c r="C23" s="112">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="75">
+        <v>22</v>
+      </c>
+      <c r="C24" s="73">
         <v>45978</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D24" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="75">
+        <v>23</v>
+      </c>
+      <c r="C25" s="73">
+        <v>45979</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="75">
+        <v>24</v>
+      </c>
+      <c r="C26" s="73">
+        <v>45979</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="114">
-        <v>22</v>
-      </c>
-      <c r="C24" s="112">
-        <v>45978</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="114">
-        <v>23</v>
-      </c>
-      <c r="C25" s="112">
-        <v>45979</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="114">
-        <v>24</v>
-      </c>
-      <c r="C26" s="112">
-        <v>45979</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="114">
+      <c r="B27" s="75">
         <v>25</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="114">
+      <c r="B28" s="75">
         <v>26</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="114">
+      <c r="B29" s="75">
         <v>27</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="114">
+      <c r="B30" s="75">
         <v>28</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="114">
+      <c r="B31" s="75">
         <v>29</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="114">
+      <c r="B32" s="75">
         <v>30</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="114">
+      <c r="B33" s="75">
         <v>31</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="114">
+      <c r="B34" s="75">
         <v>32</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="114">
+      <c r="B35" s="75">
         <v>33</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="114">
+      <c r="B36" s="75">
         <v>34</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="114">
+      <c r="B37" s="75">
         <v>35</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="114">
+      <c r="B38" s="75">
         <v>36</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="114">
+      <c r="B39" s="75">
         <v>37</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="114">
+      <c r="B40" s="75">
         <v>38</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="114">
+      <c r="B41" s="75">
         <v>39</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="114">
+      <c r="B42" s="75">
         <v>40</v>
       </c>
       <c r="C42" s="26"/>

--- a/스프링부트 미니프로젝트_prontend_v20251117.xlsx
+++ b/스프링부트 미니프로젝트_prontend_v20251117.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="팀프로젝트" sheetId="6" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="요구사항 정리" sheetId="3" r:id="rId4"/>
     <sheet name="일정관리" sheetId="4" r:id="rId5"/>
     <sheet name="이력관리" sheetId="5" r:id="rId6"/>
+    <sheet name="객체" sheetId="7" r:id="rId7"/>
+    <sheet name="기능" sheetId="9" r:id="rId8"/>
+    <sheet name="진행사항" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">일정관리!$A$1:$AF$23</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="460">
   <si>
     <t>공통 API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,6 +1428,338 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CartVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CropVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작물 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 관련 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myFarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountRestController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddressRestController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserSErviceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interceptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCheckInterceptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sAdminCropMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminCropService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminCropServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminShopMapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminShopService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminShopServiceImpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품을 진열한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자/관리자로 로그인을 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자/관리자로 로그아웃을 한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4073,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="A18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6064,7 +6399,7 @@
   <dimension ref="B3:X29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8013,4 +8348,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>407</v>
+      </c>
+      <c r="I4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E29" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="28.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="13.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>